--- a/Movingfilter/för movingfilter.xlsx
+++ b/Movingfilter/för movingfilter.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yggdrasil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yggdrasil\Desktop\eximinationsprojekt\eximinationsarbete2017\Movingfilter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Fs/2</t>
   </si>
@@ -38,46 +38,37 @@
     <t>Filterband(Hz)</t>
   </si>
   <si>
-    <t>Utgångspunkt</t>
-  </si>
-  <si>
-    <t>3900-4900</t>
-  </si>
-  <si>
-    <t>7800-9800</t>
-  </si>
-  <si>
     <t>nmr</t>
   </si>
   <si>
     <t>faktor</t>
   </si>
   <si>
-    <t>6240-7820</t>
-  </si>
-  <si>
-    <t>5070-6370</t>
-  </si>
-  <si>
-    <t>4290-5390</t>
-  </si>
-  <si>
-    <t>3120-3920</t>
-  </si>
-  <si>
-    <t>2535-3185</t>
-  </si>
-  <si>
-    <t>2145-2695</t>
-  </si>
-  <si>
-    <t>1755-2205</t>
-  </si>
-  <si>
-    <t>1404-1764</t>
-  </si>
-  <si>
-    <t>1131-1421</t>
+    <t>200-400</t>
+  </si>
+  <si>
+    <t>400-800</t>
+  </si>
+  <si>
+    <t>800-1600</t>
+  </si>
+  <si>
+    <t>1600-3200</t>
+  </si>
+  <si>
+    <t>3200-6400</t>
+  </si>
+  <si>
+    <t>6400-9999</t>
+  </si>
+  <si>
+    <t>Filter 1</t>
+  </si>
+  <si>
+    <t>Filter 2</t>
+  </si>
+  <si>
+    <t>Filter 3</t>
   </si>
 </sst>
 </file>
@@ -113,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,14 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J2:P13"/>
+  <dimension ref="A3:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J2" sqref="J2:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="12.21875" customWidth="1"/>
@@ -444,217 +437,157 @@
     <col min="15" max="15" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="K2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>20000</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>40000</v>
+      </c>
+      <c r="E5">
+        <v>20000</v>
+      </c>
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="G5">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>20000</v>
+      </c>
+      <c r="E6">
+        <v>10000</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="G6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>40000</v>
+      </c>
+      <c r="E7">
+        <v>20000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="D8">
+        <v>20000</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M3">
-        <v>2900</v>
-      </c>
-      <c r="N3">
-        <v>1450</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.36</v>
-      </c>
-      <c r="M4">
-        <v>3600</v>
-      </c>
-      <c r="N4">
-        <v>1800</v>
-      </c>
-      <c r="O4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>0.45</v>
-      </c>
-      <c r="M5">
-        <v>4500</v>
-      </c>
-      <c r="N5">
-        <v>2250</v>
-      </c>
-      <c r="O5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M6">
-        <v>5500</v>
-      </c>
-      <c r="N6">
-        <v>2750</v>
-      </c>
-      <c r="O6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>0.65</v>
-      </c>
-      <c r="M7">
-        <v>6500</v>
-      </c>
-      <c r="N7">
-        <v>3250</v>
-      </c>
-      <c r="O7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>0.8</v>
-      </c>
-      <c r="M8">
-        <v>8000</v>
-      </c>
-      <c r="N8">
-        <v>4000</v>
-      </c>
-      <c r="O8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>10000</v>
-      </c>
-      <c r="N9">
-        <v>5000</v>
-      </c>
-      <c r="O9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="K10">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M10">
-        <v>11000</v>
-      </c>
-      <c r="N10">
-        <v>5500</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="D9">
+        <v>40000</v>
+      </c>
+      <c r="E9">
+        <v>20000</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="K11">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <v>1.3</v>
-      </c>
-      <c r="M11">
-        <v>13000</v>
-      </c>
-      <c r="N11">
-        <v>6500</v>
-      </c>
-      <c r="O11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>1.6</v>
-      </c>
-      <c r="M12">
-        <v>16000</v>
-      </c>
-      <c r="N12">
-        <v>8000</v>
-      </c>
-      <c r="O12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="K13">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>20000</v>
-      </c>
-      <c r="N13">
-        <v>10000</v>
-      </c>
-      <c r="O13" t="s">
-        <v>6</v>
+      <c r="G9">
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Movingfilter/för movingfilter.xlsx
+++ b/Movingfilter/för movingfilter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>3200-6400</t>
   </si>
   <si>
-    <t>6400-9999</t>
-  </si>
-  <si>
     <t>Filter 1</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Filter 3</t>
+  </si>
+  <si>
+    <t>6400-12800</t>
   </si>
 </sst>
 </file>
@@ -421,168 +421,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G9"/>
+  <dimension ref="H3:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:P13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" customWidth="1"/>
     <col min="10" max="10" width="12.21875" customWidth="1"/>
     <col min="11" max="11" width="6.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="M3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="N3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>20000</v>
+      </c>
+      <c r="L4">
+        <v>10000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="5" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>40000</v>
+      </c>
+      <c r="L5">
+        <v>20000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="6" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="K6">
+        <v>20000</v>
+      </c>
+      <c r="L6">
+        <v>10000</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="7" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>40000</v>
+      </c>
+      <c r="L7">
+        <v>20000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="K8">
         <v>20000</v>
       </c>
-      <c r="E4">
+      <c r="L8">
         <v>10000</v>
       </c>
-      <c r="F4" t="s">
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5">
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="K9">
         <v>40000</v>
       </c>
-      <c r="E5">
+      <c r="L9">
         <v>20000</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>20000</v>
-      </c>
-      <c r="E6">
-        <v>10000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>40000</v>
-      </c>
-      <c r="E7">
-        <v>20000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="M9" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>20000</v>
-      </c>
-      <c r="E8">
-        <v>10000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>40000</v>
-      </c>
-      <c r="E9">
-        <v>20000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
+      <c r="N9">
         <v>1050</v>
       </c>
     </row>
